--- a/Analisi_cassa_integrazione/Cassa_integrazione_Ordered.xlsx
+++ b/Analisi_cassa_integrazione/Cassa_integrazione_Ordered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Analisi_cassa_integrazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C759D2DB-D717-40CA-9C4B-579D6A152B82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A07F54B-59CA-4D44-B9BF-A7A7806E7D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-1320" yWindow="45" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CEF4F1AE-EC0B-46FA-B8BE-1C5FDF78F197}"/>
+    <workbookView xWindow="510" yWindow="15" windowWidth="28185" windowHeight="15600" xr2:uid="{CEF4F1AE-EC0B-46FA-B8BE-1C5FDF78F197}"/>
   </bookViews>
   <sheets>
     <sheet name="Manifattura" sheetId="1" r:id="rId1"/>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EB538-DAFC-4E6C-A0B3-C1FAB086C724}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="B2">
         <v>5396628</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="B3">
         <v>5643347</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>-23</v>
       </c>
       <c r="B4">
         <v>5528532</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>-22</v>
       </c>
       <c r="B5">
         <v>5945377</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>-21</v>
       </c>
       <c r="B6">
         <v>7594091</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="B7">
         <v>5147421</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="B8">
         <v>2712219</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="B9">
         <v>4094683</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="B10">
         <v>2146819</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="B11">
         <v>4586554</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>-15</v>
       </c>
       <c r="B12">
         <v>5294143</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="B13">
         <v>3303551</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="B14">
         <v>4394025</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="B15">
         <v>7531088</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>-11</v>
       </c>
       <c r="B16">
         <v>2495002</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="B17">
         <v>11148760</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="B18">
         <v>3508772</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="B19">
         <v>10720684</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>-7</v>
       </c>
       <c r="B20">
         <v>3534304</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="B21">
         <v>959666</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>-5</v>
       </c>
       <c r="B22">
         <v>4508955</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="B23">
         <v>5707610</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="B24">
         <v>11397721</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="B25">
         <v>4085315</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>7706686</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>4826939</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>2828661</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>6004118</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>4427101</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>3814735</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>4533499</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>2506057</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>3934783</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>18039529</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>4085869</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>4470806</v>
@@ -1282,7 +1282,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="B2">
         <v>1017435</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="B3">
         <v>4690035</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>-23</v>
       </c>
       <c r="B4">
         <v>1872683</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>-22</v>
       </c>
       <c r="B5">
         <v>119742</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>-21</v>
       </c>
       <c r="B6">
         <v>105747</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="B7">
         <v>73824</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="B8">
         <v>101161</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="B10">
         <v>636745</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="B11">
         <v>877207</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>-15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="B13">
         <v>57519</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="B14">
         <v>391961</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="B15">
         <v>1318012</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>-11</v>
       </c>
       <c r="B16">
         <v>364971</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="B17">
         <v>577326</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="B18">
         <v>475211</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="B19">
         <v>557813</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>-7</v>
       </c>
       <c r="B20">
         <v>1794930</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="B21">
         <v>153837</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>-5</v>
       </c>
       <c r="B22">
         <v>550522</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="B23">
         <v>642602</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="B24">
         <v>126341</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="B25">
         <v>377894</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>45435</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>946198</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>495845</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>1168432</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>563675</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>1703353</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>5692942</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>1258110</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>1129115</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>1617812</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>372912</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>1535707</v>
@@ -2151,7 +2151,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="B2">
         <v>317721</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="B3">
         <v>340704</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>-23</v>
       </c>
       <c r="B4">
         <v>79973</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>-22</v>
       </c>
       <c r="B5">
         <v>171387</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>-21</v>
       </c>
       <c r="B6">
         <v>883792</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="B7">
         <v>70181</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="B8">
         <v>7936</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="B9">
         <v>221942</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="B10">
         <v>367744</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="B11">
         <v>161873</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>-15</v>
       </c>
       <c r="B12">
         <v>105104</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="B13">
         <v>682852</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="B14">
         <v>614151</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="B15">
         <v>55994</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>-11</v>
       </c>
       <c r="B16">
         <v>1288264</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="B17">
         <v>1349848</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="B18">
         <v>44739</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="B19">
         <v>40848</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>-7</v>
       </c>
       <c r="B20">
         <v>88021</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="B21">
         <v>340032</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>-5</v>
       </c>
       <c r="B22">
         <v>297112</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="B23">
         <v>174181</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="B24">
         <v>119808</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="B25">
         <v>157327</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>9241</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>309051</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>121608</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>52111</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>765063</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>800838</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>433319</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>28161</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>486472</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>253344</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>206789</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>59641</v>
@@ -3021,7 +3021,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C12:C24"/>
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="B2">
         <v>205552</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="B3">
         <v>308055</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>-23</v>
       </c>
       <c r="B4">
         <v>167615</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>-22</v>
       </c>
       <c r="B5">
         <v>200813</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>-21</v>
       </c>
       <c r="B6">
         <v>35631</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="B7">
         <v>153867</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="B8">
         <v>139349</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="B9">
         <v>142966</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="B10">
         <v>186979</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="B11">
         <v>252527</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>-15</v>
       </c>
       <c r="B12">
         <v>536767</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="B13">
         <v>208305</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="B14">
         <v>372481</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="B15">
         <v>182983</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>-11</v>
       </c>
       <c r="B16">
         <v>547773</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="B17">
         <v>329298</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="B18">
         <v>553113</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="B19">
         <v>37596</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>-7</v>
       </c>
       <c r="B20">
         <v>416111</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="B21">
         <v>106186</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>-5</v>
       </c>
       <c r="B22">
         <v>416145</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="B23">
         <v>181422</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="B24">
         <v>167942</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="B25">
         <v>97595</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>1336317</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>344152</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>100347</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>81373</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>1350373</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>162851</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>25913</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>89846</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>748473</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>115315</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>198878</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>92849</v>
@@ -3889,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9210EA3B-80F4-4CED-AA77-D6142298C84C}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="B2">
         <v>4437910</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="B3">
         <v>6956403</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>-23</v>
       </c>
       <c r="B4">
         <v>5400369</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>-22</v>
       </c>
       <c r="B5">
         <v>3364714</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>-21</v>
       </c>
       <c r="B6">
         <v>4654973</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="B7">
         <v>4276869</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="B8">
         <v>3961291</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="B9">
         <v>3046677</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>-17</v>
       </c>
       <c r="B10">
         <v>3638185</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>-16</v>
       </c>
       <c r="B11">
         <v>7044974</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>-15</v>
       </c>
       <c r="B12">
         <v>8170400</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="B13">
         <v>4263493</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="B14">
         <v>6080925</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="B15">
         <v>9353994</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>-11</v>
       </c>
       <c r="B16">
         <v>4803189</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>-10</v>
       </c>
       <c r="B17">
         <v>13588541</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="B18">
         <v>5157742</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>-8</v>
       </c>
       <c r="B19">
         <v>13663798</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>-7</v>
       </c>
       <c r="B20">
         <v>6298215</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="B21">
         <v>1640214</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>-5</v>
       </c>
       <c r="B22">
         <v>5878633</v>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="B23">
         <v>7293548</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="B24">
         <v>12930191</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="B25">
         <v>5024900</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>9238706</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>6645836</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>4117280</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>10154600</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B30">
         <v>15241050</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>22445422</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>25888378</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>6338117</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B34">
         <v>9221249</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>21308164</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>8503047</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>12389839</v>

--- a/Analisi_cassa_integrazione/Cassa_integrazione_Ordered.xlsx
+++ b/Analisi_cassa_integrazione/Cassa_integrazione_Ordered.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Analisi_cassa_integrazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A07F54B-59CA-4D44-B9BF-A7A7806E7D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9705B5-7348-41DC-A443-2AE73B734F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="15" windowWidth="28185" windowHeight="15600" xr2:uid="{CEF4F1AE-EC0B-46FA-B8BE-1C5FDF78F197}"/>
+    <workbookView xWindow="615" yWindow="0" windowWidth="28185" windowHeight="15600" xr2:uid="{CEF4F1AE-EC0B-46FA-B8BE-1C5FDF78F197}"/>
   </bookViews>
   <sheets>
     <sheet name="Manifattura" sheetId="1" r:id="rId1"/>
-    <sheet name="Commercio" sheetId="2" r:id="rId2"/>
-    <sheet name="Costruzioni" sheetId="3" r:id="rId3"/>
-    <sheet name="Immobiliare" sheetId="4" r:id="rId4"/>
-    <sheet name="Full" sheetId="5" r:id="rId5"/>
+    <sheet name="Manifattura_DID" sheetId="7" r:id="rId2"/>
+    <sheet name="Commercio" sheetId="2" r:id="rId3"/>
+    <sheet name="Commercio_DID" sheetId="8" r:id="rId4"/>
+    <sheet name="Costruzioni" sheetId="3" r:id="rId5"/>
+    <sheet name="Costruzioni_DID" sheetId="9" r:id="rId6"/>
+    <sheet name="Immobiliare" sheetId="4" r:id="rId7"/>
+    <sheet name="Immobiliare_DID" sheetId="10" r:id="rId8"/>
+    <sheet name="Full" sheetId="5" r:id="rId9"/>
+    <sheet name="Full_DID" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="9">
   <si>
     <t>Time</t>
   </si>
@@ -59,6 +64,12 @@
   </si>
   <si>
     <t>CIG_SL</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -412,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EB538-DAFC-4E6C-A0B3-C1FAB086C724}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1270,6 +1281,1244 @@
       </c>
       <c r="G37">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A844DF2-0A5D-44BC-AEB7-E05463186772}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-25</v>
+      </c>
+      <c r="B2">
+        <v>5396628</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-24</v>
+      </c>
+      <c r="B3">
+        <v>5643347</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-23</v>
+      </c>
+      <c r="B4">
+        <v>5528532</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-22</v>
+      </c>
+      <c r="B5">
+        <v>5945377</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-21</v>
+      </c>
+      <c r="B6">
+        <v>7594091</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-20</v>
+      </c>
+      <c r="B7">
+        <v>5147421</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-19</v>
+      </c>
+      <c r="B8">
+        <v>2712219</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-18</v>
+      </c>
+      <c r="B9">
+        <v>4094683</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-17</v>
+      </c>
+      <c r="B10">
+        <v>2146819</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-16</v>
+      </c>
+      <c r="B11">
+        <v>4586554</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-15</v>
+      </c>
+      <c r="B12">
+        <v>5294143</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-14</v>
+      </c>
+      <c r="B13">
+        <v>3303551</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-13</v>
+      </c>
+      <c r="B14">
+        <v>1710671</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-12</v>
+      </c>
+      <c r="B15">
+        <v>10964092</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-11</v>
+      </c>
+      <c r="B16">
+        <v>5155930</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-10</v>
+      </c>
+      <c r="B17">
+        <v>4264019</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-9</v>
+      </c>
+      <c r="B18">
+        <v>11382890</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-8</v>
+      </c>
+      <c r="B19">
+        <v>5167951</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-7</v>
+      </c>
+      <c r="B20">
+        <v>3727660</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-6</v>
+      </c>
+      <c r="B21">
+        <v>869861</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>5642940</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-4</v>
+      </c>
+      <c r="B23">
+        <v>6197018</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-3</v>
+      </c>
+      <c r="B24">
+        <v>3674961</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-2</v>
+      </c>
+      <c r="B25">
+        <v>2516485</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>2649287</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>3945527</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3136667</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2295255</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2368790</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>1579071</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-25</v>
+      </c>
+      <c r="B32">
+        <v>6836660</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-24</v>
+      </c>
+      <c r="B33">
+        <v>9668572</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-23</v>
+      </c>
+      <c r="B34">
+        <v>9780881</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-22</v>
+      </c>
+      <c r="B35">
+        <v>9067675</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-21</v>
+      </c>
+      <c r="B36">
+        <v>10811623</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-20</v>
+      </c>
+      <c r="B37">
+        <v>9807289</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-19</v>
+      </c>
+      <c r="B38">
+        <v>7560614</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-18</v>
+      </c>
+      <c r="B39">
+        <v>3967916</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>5503303</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-16</v>
+      </c>
+      <c r="B41">
+        <v>7385109</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-15</v>
+      </c>
+      <c r="B42">
+        <v>8917306</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-14</v>
+      </c>
+      <c r="B43">
+        <v>6349947</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-13</v>
+      </c>
+      <c r="B44">
+        <v>7173357</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-12</v>
+      </c>
+      <c r="B45">
+        <v>8518555</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-11</v>
+      </c>
+      <c r="B46">
+        <v>11810867</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-10</v>
+      </c>
+      <c r="B47">
+        <v>7419176</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-9</v>
+      </c>
+      <c r="B48">
+        <v>8636935</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-8</v>
+      </c>
+      <c r="B49">
+        <v>8118731</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-7</v>
+      </c>
+      <c r="B50">
+        <v>8847531</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-6</v>
+      </c>
+      <c r="B51">
+        <v>3891704</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-5</v>
+      </c>
+      <c r="B52">
+        <v>5651790</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-4</v>
+      </c>
+      <c r="B53">
+        <v>12340389</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-3</v>
+      </c>
+      <c r="B54">
+        <v>14277115</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-2</v>
+      </c>
+      <c r="B55">
+        <v>8751012</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-1</v>
+      </c>
+      <c r="B56">
+        <v>9423176</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10670658</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>12743757</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>712969630</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>224097354</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>149752844</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1278,11 +2527,1246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C8F58-6DEF-461F-A8B4-984EEB4EEBC7}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-25</v>
+      </c>
+      <c r="B2">
+        <v>4114888</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-24</v>
+      </c>
+      <c r="B3">
+        <v>4661443</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-23</v>
+      </c>
+      <c r="B4">
+        <v>3727848</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-22</v>
+      </c>
+      <c r="B5">
+        <v>4558718</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-21</v>
+      </c>
+      <c r="B6">
+        <v>6106410</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-20</v>
+      </c>
+      <c r="B7">
+        <v>4584435</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-19</v>
+      </c>
+      <c r="B8">
+        <v>2252129</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-18</v>
+      </c>
+      <c r="B9">
+        <v>3371740</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-17</v>
+      </c>
+      <c r="B10">
+        <v>1304872</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-16</v>
+      </c>
+      <c r="B11">
+        <v>3926614</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-15</v>
+      </c>
+      <c r="B12">
+        <v>4443131</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-14</v>
+      </c>
+      <c r="B13">
+        <v>2146797</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-13</v>
+      </c>
+      <c r="B14">
+        <v>1312592</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-12</v>
+      </c>
+      <c r="B15">
+        <v>4423622</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-11</v>
+      </c>
+      <c r="B16">
+        <v>4754408</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-10</v>
+      </c>
+      <c r="B17">
+        <v>3566483</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-9</v>
+      </c>
+      <c r="B18">
+        <v>10821692</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-8</v>
+      </c>
+      <c r="B19">
+        <v>3629107</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-7</v>
+      </c>
+      <c r="B20">
+        <v>2743162</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-6</v>
+      </c>
+      <c r="B21">
+        <v>508055</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>4881841</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-4</v>
+      </c>
+      <c r="B23">
+        <v>5683926</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-3</v>
+      </c>
+      <c r="B24">
+        <v>3303885</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-2</v>
+      </c>
+      <c r="B25">
+        <v>1914408</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>2118970</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>3218956</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2555816</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1718222</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1003621</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>413096</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-25</v>
+      </c>
+      <c r="B32">
+        <v>4319894</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-24</v>
+      </c>
+      <c r="B33">
+        <v>6237161</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-23</v>
+      </c>
+      <c r="B34">
+        <v>5634458</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-22</v>
+      </c>
+      <c r="B35">
+        <v>5116506</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-21</v>
+      </c>
+      <c r="B36">
+        <v>6402607</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-20</v>
+      </c>
+      <c r="B37">
+        <v>6495419</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-19</v>
+      </c>
+      <c r="B38">
+        <v>5001380</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-18</v>
+      </c>
+      <c r="B39">
+        <v>2436034</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>4113691</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-16</v>
+      </c>
+      <c r="B41">
+        <v>6090097</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-15</v>
+      </c>
+      <c r="B42">
+        <v>7107564</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-14</v>
+      </c>
+      <c r="B43">
+        <v>4387882</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-13</v>
+      </c>
+      <c r="B44">
+        <v>4893414</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-12</v>
+      </c>
+      <c r="B45">
+        <v>5946030</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-11</v>
+      </c>
+      <c r="B46">
+        <v>8743336</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-10</v>
+      </c>
+      <c r="B47">
+        <v>5512032</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-9</v>
+      </c>
+      <c r="B48">
+        <v>6197434</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-8</v>
+      </c>
+      <c r="B49">
+        <v>6000609</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-7</v>
+      </c>
+      <c r="B50">
+        <v>6881658</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-6</v>
+      </c>
+      <c r="B51">
+        <v>2869950</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-5</v>
+      </c>
+      <c r="B52">
+        <v>4512177</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-4</v>
+      </c>
+      <c r="B53">
+        <v>10705055</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-3</v>
+      </c>
+      <c r="B54">
+        <v>12850860</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-2</v>
+      </c>
+      <c r="B55">
+        <v>6726554</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-1</v>
+      </c>
+      <c r="B56">
+        <v>6401273</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>8159875</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>10842103</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>498452915</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>165930348</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>114489359</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9213B-0183-49AF-8B86-B8A4B81A71BB}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2146,12 +4630,1247 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBD1BA9-B307-4911-BA10-B81EEB0A5C75}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-25</v>
+      </c>
+      <c r="B2">
+        <v>392046</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-24</v>
+      </c>
+      <c r="B3">
+        <v>199177</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-23</v>
+      </c>
+      <c r="B4">
+        <v>826542</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-22</v>
+      </c>
+      <c r="B5">
+        <v>486713</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-21</v>
+      </c>
+      <c r="B6">
+        <v>525792</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-20</v>
+      </c>
+      <c r="B7">
+        <v>15811</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-19</v>
+      </c>
+      <c r="B8">
+        <v>53586</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-18</v>
+      </c>
+      <c r="B9">
+        <v>221678</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-17</v>
+      </c>
+      <c r="B10">
+        <v>66731</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-16</v>
+      </c>
+      <c r="B11">
+        <v>159996</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-15</v>
+      </c>
+      <c r="B12">
+        <v>448761</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-14</v>
+      </c>
+      <c r="B13">
+        <v>945245</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-13</v>
+      </c>
+      <c r="B14">
+        <v>54124</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-12</v>
+      </c>
+      <c r="B15">
+        <v>50353</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-11</v>
+      </c>
+      <c r="B16">
+        <v>66102</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-10</v>
+      </c>
+      <c r="B17">
+        <v>15749</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-9</v>
+      </c>
+      <c r="B18">
+        <v>298766</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-8</v>
+      </c>
+      <c r="B19">
+        <v>368566</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-7</v>
+      </c>
+      <c r="B20">
+        <v>118161</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-6</v>
+      </c>
+      <c r="B21">
+        <v>172144</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>216049</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-4</v>
+      </c>
+      <c r="B23">
+        <v>128265</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-3</v>
+      </c>
+      <c r="B24">
+        <v>82115</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-2</v>
+      </c>
+      <c r="B25">
+        <v>289059</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>35549</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>75327</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>79551</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>89863</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>117234</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>167522</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-25</v>
+      </c>
+      <c r="B32">
+        <v>101507</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-24</v>
+      </c>
+      <c r="B33">
+        <v>227518</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-23</v>
+      </c>
+      <c r="B34">
+        <v>111719</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-22</v>
+      </c>
+      <c r="B35">
+        <v>61738</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-21</v>
+      </c>
+      <c r="B36">
+        <v>51461</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-20</v>
+      </c>
+      <c r="B37">
+        <v>34375</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-19</v>
+      </c>
+      <c r="B38">
+        <v>61172</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-18</v>
+      </c>
+      <c r="B39">
+        <v>49695</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>52552</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-16</v>
+      </c>
+      <c r="B41">
+        <v>72689</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-15</v>
+      </c>
+      <c r="B42">
+        <v>91678</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-14</v>
+      </c>
+      <c r="B43">
+        <v>79545</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-13</v>
+      </c>
+      <c r="B44">
+        <v>130948</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-12</v>
+      </c>
+      <c r="B45">
+        <v>57794</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-11</v>
+      </c>
+      <c r="B46">
+        <v>86587</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-10</v>
+      </c>
+      <c r="B47">
+        <v>42055</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-9</v>
+      </c>
+      <c r="B48">
+        <v>132257</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-8</v>
+      </c>
+      <c r="B49">
+        <v>45548</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-7</v>
+      </c>
+      <c r="B50">
+        <v>40287</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-6</v>
+      </c>
+      <c r="B51">
+        <v>20651</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-5</v>
+      </c>
+      <c r="B52">
+        <v>40195</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-4</v>
+      </c>
+      <c r="B53">
+        <v>115449</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-3</v>
+      </c>
+      <c r="B54">
+        <v>95871</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-2</v>
+      </c>
+      <c r="B55">
+        <v>90111</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-1</v>
+      </c>
+      <c r="B56">
+        <v>120355</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>63521</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>53437</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>16352757</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>3688236</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2937634</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1872843A-0AB3-4565-9002-1D72213B697C}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3016,12 +6735,1247 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B99837-7CF3-44A2-95B3-CEBC678D0AB3}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-25</v>
+      </c>
+      <c r="B2">
+        <v>104618</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-24</v>
+      </c>
+      <c r="B3">
+        <v>4212</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-23</v>
+      </c>
+      <c r="B4">
+        <v>37168</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-22</v>
+      </c>
+      <c r="B5">
+        <v>10085</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-21</v>
+      </c>
+      <c r="B6">
+        <v>183604</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-20</v>
+      </c>
+      <c r="B7">
+        <v>26208</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-19</v>
+      </c>
+      <c r="B8">
+        <v>80376</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-18</v>
+      </c>
+      <c r="B9">
+        <v>35569</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-17</v>
+      </c>
+      <c r="B10">
+        <v>87454</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-16</v>
+      </c>
+      <c r="B11">
+        <v>51885</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-15</v>
+      </c>
+      <c r="B12">
+        <v>10872</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-14</v>
+      </c>
+      <c r="B13">
+        <v>26568</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-13</v>
+      </c>
+      <c r="B14">
+        <v>42265</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-12</v>
+      </c>
+      <c r="B15">
+        <v>30441</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-11</v>
+      </c>
+      <c r="B16">
+        <v>18617</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-10</v>
+      </c>
+      <c r="B17">
+        <v>170228</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-9</v>
+      </c>
+      <c r="B18">
+        <v>151611</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-8</v>
+      </c>
+      <c r="B19">
+        <v>193372</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-7</v>
+      </c>
+      <c r="B20">
+        <v>41716</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-6</v>
+      </c>
+      <c r="B21">
+        <v>124618</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>82902</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-4</v>
+      </c>
+      <c r="B23">
+        <v>63144</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-3</v>
+      </c>
+      <c r="B24">
+        <v>43187</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-2</v>
+      </c>
+      <c r="B25">
+        <v>23373</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>7546</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>13435</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>19281</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3528</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>3611</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2756</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-25</v>
+      </c>
+      <c r="B32">
+        <v>2178056</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-24</v>
+      </c>
+      <c r="B33">
+        <v>2839616</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-23</v>
+      </c>
+      <c r="B34">
+        <v>3685185</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-22</v>
+      </c>
+      <c r="B35">
+        <v>3610587</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-21</v>
+      </c>
+      <c r="B36">
+        <v>4126658</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-20</v>
+      </c>
+      <c r="B37">
+        <v>3027288</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-19</v>
+      </c>
+      <c r="B38">
+        <v>2271978</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-18</v>
+      </c>
+      <c r="B39">
+        <v>1282182</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>1219960</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-16</v>
+      </c>
+      <c r="B41">
+        <v>1118648</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-15</v>
+      </c>
+      <c r="B42">
+        <v>1560353</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-14</v>
+      </c>
+      <c r="B43">
+        <v>1723576</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-13</v>
+      </c>
+      <c r="B44">
+        <v>1897130</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-12</v>
+      </c>
+      <c r="B45">
+        <v>2301014</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-11</v>
+      </c>
+      <c r="B46">
+        <v>2641427</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-10</v>
+      </c>
+      <c r="B47">
+        <v>1702983</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-9</v>
+      </c>
+      <c r="B48">
+        <v>2175609</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-8</v>
+      </c>
+      <c r="B49">
+        <v>1956769</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-7</v>
+      </c>
+      <c r="B50">
+        <v>1540570</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-6</v>
+      </c>
+      <c r="B51">
+        <v>927808</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-5</v>
+      </c>
+      <c r="B52">
+        <v>964735</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-4</v>
+      </c>
+      <c r="B53">
+        <v>1171670</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-3</v>
+      </c>
+      <c r="B54">
+        <v>1097208</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-2</v>
+      </c>
+      <c r="B55">
+        <v>1788183</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-1</v>
+      </c>
+      <c r="B56">
+        <v>2664449</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1981341</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1554093</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>136278721</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>31045448</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>16372747</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6F7E56-BCA4-473D-8AF2-F2A8B2FD57EF}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3885,12 +8839,1247 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C8F940-33AC-43D3-B90F-35155D11C272}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-25</v>
+      </c>
+      <c r="B2">
+        <v>35882</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-24</v>
+      </c>
+      <c r="B3">
+        <v>94151</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-23</v>
+      </c>
+      <c r="B4">
+        <v>431817</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-22</v>
+      </c>
+      <c r="B5">
+        <v>247199</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-21</v>
+      </c>
+      <c r="B6">
+        <v>193195</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-20</v>
+      </c>
+      <c r="B7">
+        <v>133164</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-19</v>
+      </c>
+      <c r="B8">
+        <v>73134</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-18</v>
+      </c>
+      <c r="B9">
+        <v>60786</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-17</v>
+      </c>
+      <c r="B10">
+        <v>198496</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-16</v>
+      </c>
+      <c r="B11">
+        <v>213384</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-15</v>
+      </c>
+      <c r="B12">
+        <v>67178</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-14</v>
+      </c>
+      <c r="B13">
+        <v>27563</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-13</v>
+      </c>
+      <c r="B14">
+        <v>81405</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-12</v>
+      </c>
+      <c r="B15">
+        <v>58534</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-11</v>
+      </c>
+      <c r="B16">
+        <v>24881</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-10</v>
+      </c>
+      <c r="B17">
+        <v>125361</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-9</v>
+      </c>
+      <c r="B18">
+        <v>8581</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-8</v>
+      </c>
+      <c r="B19">
+        <v>51056</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-7</v>
+      </c>
+      <c r="B20">
+        <v>76172</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-6</v>
+      </c>
+      <c r="B21">
+        <v>107818</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-5</v>
+      </c>
+      <c r="B22">
+        <v>6758</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-4</v>
+      </c>
+      <c r="B23">
+        <v>70209</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-3</v>
+      </c>
+      <c r="B24">
+        <v>11991</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-2</v>
+      </c>
+      <c r="B25">
+        <v>198057</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>416098</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>65458</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>127732</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>30282</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>36113</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>40111</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-25</v>
+      </c>
+      <c r="B32">
+        <v>317721</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-24</v>
+      </c>
+      <c r="B33">
+        <v>49391</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-23</v>
+      </c>
+      <c r="B34">
+        <v>53741</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-22</v>
+      </c>
+      <c r="B35">
+        <v>23402</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-21</v>
+      </c>
+      <c r="B36">
+        <v>22943</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-20</v>
+      </c>
+      <c r="B37">
+        <v>16517</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-19</v>
+      </c>
+      <c r="B38">
+        <v>41137</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-18</v>
+      </c>
+      <c r="B39">
+        <v>36817</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>74209</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-16</v>
+      </c>
+      <c r="B41">
+        <v>10403</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-15</v>
+      </c>
+      <c r="B42">
+        <v>25542</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-14</v>
+      </c>
+      <c r="B43">
+        <v>35431</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-13</v>
+      </c>
+      <c r="B44">
+        <v>16384</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-12</v>
+      </c>
+      <c r="B45">
+        <v>3504</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-11</v>
+      </c>
+      <c r="B46">
+        <v>11741</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-10</v>
+      </c>
+      <c r="B47">
+        <v>28483</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-9</v>
+      </c>
+      <c r="B48">
+        <v>4733</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-8</v>
+      </c>
+      <c r="B49">
+        <v>13775</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-7</v>
+      </c>
+      <c r="B50">
+        <v>15626</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-6</v>
+      </c>
+      <c r="B51">
+        <v>24842</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-5</v>
+      </c>
+      <c r="B52">
+        <v>5705</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-4</v>
+      </c>
+      <c r="B53">
+        <v>14169</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-3</v>
+      </c>
+      <c r="B54">
+        <v>214</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-2</v>
+      </c>
+      <c r="B55">
+        <v>22604</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-1</v>
+      </c>
+      <c r="B56">
+        <v>9159</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>20202</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>176219</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>48605</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>12380727</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>5747655</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9210EA3B-80F4-4CED-AA77-D6142298C84C}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A2:A37"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>

--- a/Analisi_cassa_integrazione/Cassa_integrazione_Ordered.xlsx
+++ b/Analisi_cassa_integrazione/Cassa_integrazione_Ordered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Analisi_cassa_integrazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Analisi_cassa_integrazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9705B5-7348-41DC-A443-2AE73B734F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59224041-2B88-9A48-97CB-C8FE5378825E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="0" windowWidth="28185" windowHeight="15600" xr2:uid="{CEF4F1AE-EC0B-46FA-B8BE-1C5FDF78F197}"/>
+    <workbookView xWindow="620" yWindow="500" windowWidth="28180" windowHeight="15600" activeTab="9" xr2:uid="{CEF4F1AE-EC0B-46FA-B8BE-1C5FDF78F197}"/>
   </bookViews>
   <sheets>
     <sheet name="Manifattura" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
   </si>
 </sst>
 </file>
@@ -421,18 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8EB538-DAFC-4E6C-A0B3-C1FAB086C724}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +463,17 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -477,8 +495,17 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -500,8 +527,17 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -523,8 +559,17 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -546,8 +591,17 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -569,8 +623,17 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -592,8 +655,17 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -615,8 +687,17 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -638,8 +719,17 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -661,8 +751,17 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -684,8 +783,17 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -707,8 +815,17 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -730,8 +847,17 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -753,8 +879,17 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -776,8 +911,17 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -799,8 +943,17 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -822,8 +975,17 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -845,8 +1007,17 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -868,8 +1039,17 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -891,8 +1071,17 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -914,8 +1103,17 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -937,8 +1135,17 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -960,8 +1167,17 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -983,8 +1199,17 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -1006,8 +1231,17 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -1029,8 +1263,17 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1052,8 +1295,17 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1075,8 +1327,17 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1098,8 +1359,17 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1121,8 +1391,17 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1144,8 +1423,17 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1167,8 +1455,17 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1190,8 +1487,17 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1213,8 +1519,17 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1236,8 +1551,17 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1259,8 +1583,17 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -1280,6 +1613,15 @@
         <v>0</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>0</v>
       </c>
     </row>
@@ -1290,18 +1632,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A844DF2-0A5D-44BC-AEB7-E05463186772}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,8 +1662,17 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -1340,8 +1691,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -1360,8 +1720,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -1380,8 +1749,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -1400,8 +1778,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -1420,8 +1807,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -1440,8 +1836,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -1460,8 +1865,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -1480,8 +1894,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -1500,8 +1923,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -1520,8 +1952,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -1540,8 +1981,17 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -1560,8 +2010,17 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -1580,8 +2039,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -1600,8 +2068,17 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -1620,8 +2097,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -1640,8 +2126,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -1660,8 +2155,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -1680,8 +2184,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -1700,8 +2213,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -1720,8 +2242,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -1740,8 +2271,17 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -1760,8 +2300,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -1780,8 +2329,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -1800,8 +2358,17 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -1820,8 +2387,17 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1840,8 +2416,17 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1860,8 +2445,17 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1880,8 +2474,17 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1900,8 +2503,17 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1920,8 +2532,17 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-25</v>
       </c>
@@ -1940,8 +2561,17 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-24</v>
       </c>
@@ -1960,8 +2590,17 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-23</v>
       </c>
@@ -1980,8 +2619,17 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-22</v>
       </c>
@@ -2000,8 +2648,17 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-21</v>
       </c>
@@ -2020,8 +2677,17 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-20</v>
       </c>
@@ -2040,8 +2706,17 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-19</v>
       </c>
@@ -2060,8 +2735,17 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-18</v>
       </c>
@@ -2080,8 +2764,17 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-17</v>
       </c>
@@ -2100,8 +2793,17 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-16</v>
       </c>
@@ -2120,8 +2822,17 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-15</v>
       </c>
@@ -2140,8 +2851,17 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-14</v>
       </c>
@@ -2160,8 +2880,17 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-13</v>
       </c>
@@ -2180,8 +2909,17 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-12</v>
       </c>
@@ -2200,8 +2938,17 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-11</v>
       </c>
@@ -2220,8 +2967,17 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-10</v>
       </c>
@@ -2240,8 +2996,17 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-9</v>
       </c>
@@ -2260,8 +3025,17 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-8</v>
       </c>
@@ -2280,8 +3054,17 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-7</v>
       </c>
@@ -2300,8 +3083,17 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-6</v>
       </c>
@@ -2320,8 +3112,17 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-5</v>
       </c>
@@ -2340,8 +3141,17 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-4</v>
       </c>
@@ -2360,8 +3170,17 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-3</v>
       </c>
@@ -2380,8 +3199,17 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2</v>
       </c>
@@ -2400,8 +3228,17 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-1</v>
       </c>
@@ -2420,8 +3257,17 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -2440,8 +3286,17 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2460,8 +3315,17 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2480,8 +3344,17 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2500,8 +3373,17 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2519,6 +3401,15 @@
       </c>
       <c r="F61">
         <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2528,15 +3419,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C8F58-6DEF-461F-A8B4-984EEB4EEBC7}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2555,8 +3446,17 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -2575,8 +3475,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -2595,8 +3504,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -2615,8 +3533,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -2635,8 +3562,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -2655,8 +3591,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -2675,8 +3620,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -2695,8 +3649,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -2715,8 +3678,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -2735,8 +3707,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -2755,8 +3736,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -2775,8 +3765,17 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -2795,8 +3794,17 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -2815,8 +3823,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -2835,8 +3852,17 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -2855,8 +3881,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -2875,8 +3910,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -2895,8 +3939,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -2915,8 +3968,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -2935,8 +3997,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -2955,8 +4026,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -2975,8 +4055,17 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -2995,8 +4084,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -3015,8 +4113,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -3035,8 +4142,17 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -3055,8 +4171,17 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3075,8 +4200,17 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3095,8 +4229,17 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3115,8 +4258,17 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3135,8 +4287,17 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3155,8 +4316,17 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-25</v>
       </c>
@@ -3175,8 +4345,17 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-24</v>
       </c>
@@ -3195,8 +4374,17 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-23</v>
       </c>
@@ -3215,8 +4403,17 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-22</v>
       </c>
@@ -3235,8 +4432,17 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-21</v>
       </c>
@@ -3255,8 +4461,17 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-20</v>
       </c>
@@ -3275,8 +4490,17 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-19</v>
       </c>
@@ -3295,8 +4519,17 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-18</v>
       </c>
@@ -3315,8 +4548,17 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-17</v>
       </c>
@@ -3335,8 +4577,17 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-16</v>
       </c>
@@ -3355,8 +4606,17 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-15</v>
       </c>
@@ -3375,8 +4635,17 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-14</v>
       </c>
@@ -3395,8 +4664,17 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-13</v>
       </c>
@@ -3415,8 +4693,17 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-12</v>
       </c>
@@ -3435,8 +4722,17 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-11</v>
       </c>
@@ -3455,8 +4751,17 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-10</v>
       </c>
@@ -3475,8 +4780,17 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-9</v>
       </c>
@@ -3495,8 +4809,17 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-8</v>
       </c>
@@ -3515,8 +4838,17 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-7</v>
       </c>
@@ -3535,8 +4867,17 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-6</v>
       </c>
@@ -3555,8 +4896,17 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-5</v>
       </c>
@@ -3575,8 +4925,17 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-4</v>
       </c>
@@ -3595,8 +4954,17 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-3</v>
       </c>
@@ -3615,8 +4983,17 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2</v>
       </c>
@@ -3635,8 +5012,17 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-1</v>
       </c>
@@ -3655,8 +5041,17 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3675,8 +5070,17 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3695,8 +5099,17 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3715,8 +5128,17 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3735,8 +5157,17 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -3754,6 +5185,15 @@
       </c>
       <c r="F61">
         <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3769,12 +5209,12 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3797,7 +5237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -3820,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -3843,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -3866,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -3889,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -3912,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -3935,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -3958,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -3981,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -4004,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -4027,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -4050,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -4073,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -4096,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -4119,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -4142,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -4165,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -4188,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -4211,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -4234,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -4257,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -4280,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -4303,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -4326,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -4349,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -4372,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -4395,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4418,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4441,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4464,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4487,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -4510,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -4533,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -4556,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
@@ -4579,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -4602,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -4632,15 +6072,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBD1BA9-B307-4911-BA10-B81EEB0A5C75}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4659,8 +6099,17 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -4679,8 +6128,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -4699,8 +6157,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -4719,8 +6186,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -4739,8 +6215,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -4759,8 +6244,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -4779,8 +6273,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -4799,8 +6302,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -4819,8 +6331,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -4839,8 +6360,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -4859,8 +6389,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -4879,8 +6418,17 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -4899,8 +6447,17 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -4919,8 +6476,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -4939,8 +6505,17 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -4959,8 +6534,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -4979,8 +6563,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -4999,8 +6592,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -5019,8 +6621,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -5039,8 +6650,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -5059,8 +6679,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -5079,8 +6708,17 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -5099,8 +6737,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -5119,8 +6766,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -5139,8 +6795,17 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -5159,8 +6824,17 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5179,8 +6853,17 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5199,8 +6882,17 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -5219,8 +6911,17 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -5239,8 +6940,17 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5259,8 +6969,17 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-25</v>
       </c>
@@ -5279,8 +6998,17 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-24</v>
       </c>
@@ -5299,8 +7027,17 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-23</v>
       </c>
@@ -5319,8 +7056,17 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-22</v>
       </c>
@@ -5339,8 +7085,17 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-21</v>
       </c>
@@ -5359,8 +7114,17 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-20</v>
       </c>
@@ -5379,8 +7143,17 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-19</v>
       </c>
@@ -5399,8 +7172,17 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-18</v>
       </c>
@@ -5419,8 +7201,17 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-17</v>
       </c>
@@ -5439,8 +7230,17 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-16</v>
       </c>
@@ -5459,8 +7259,17 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-15</v>
       </c>
@@ -5479,8 +7288,17 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-14</v>
       </c>
@@ -5499,8 +7317,17 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-13</v>
       </c>
@@ -5519,8 +7346,17 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-12</v>
       </c>
@@ -5539,8 +7375,17 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-11</v>
       </c>
@@ -5559,8 +7404,17 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-10</v>
       </c>
@@ -5579,8 +7433,17 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-9</v>
       </c>
@@ -5599,8 +7462,17 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-8</v>
       </c>
@@ -5619,8 +7491,17 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-7</v>
       </c>
@@ -5639,8 +7520,17 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-6</v>
       </c>
@@ -5659,8 +7549,17 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-5</v>
       </c>
@@ -5679,8 +7578,17 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-4</v>
       </c>
@@ -5699,8 +7607,17 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-3</v>
       </c>
@@ -5719,8 +7636,17 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2</v>
       </c>
@@ -5739,8 +7665,17 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-1</v>
       </c>
@@ -5759,8 +7694,17 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -5779,8 +7723,17 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -5799,8 +7752,17 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -5819,8 +7781,17 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -5839,8 +7810,17 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -5858,6 +7838,15 @@
       </c>
       <c r="F61">
         <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5873,13 +7862,13 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5902,7 +7891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -5925,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -5948,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -5971,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -5994,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -6017,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -6040,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -6063,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -6086,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -6109,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -6132,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -6155,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -6178,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -6201,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -6224,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -6247,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -6270,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -6293,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -6316,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -6339,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -6362,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -6385,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -6408,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -6431,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -6454,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -6477,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -6500,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6523,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6546,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6569,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6592,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -6615,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -6638,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -6661,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
@@ -6684,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -6707,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -6737,15 +8726,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B99837-7CF3-44A2-95B3-CEBC678D0AB3}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6764,8 +8753,17 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -6784,8 +8782,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -6804,8 +8811,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -6824,8 +8840,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -6844,8 +8869,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -6864,8 +8898,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -6884,8 +8927,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -6904,8 +8956,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -6924,8 +8985,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -6944,8 +9014,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -6964,8 +9043,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -6984,8 +9072,17 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -7004,8 +9101,17 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -7024,8 +9130,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -7044,8 +9159,17 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -7064,8 +9188,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -7084,8 +9217,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -7104,8 +9246,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -7124,8 +9275,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -7144,8 +9304,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -7164,8 +9333,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -7184,8 +9362,17 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -7204,8 +9391,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -7224,8 +9420,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -7244,8 +9449,17 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -7264,8 +9478,17 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -7284,8 +9507,17 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7304,8 +9536,17 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7324,8 +9565,17 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -7344,8 +9594,17 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7364,8 +9623,17 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-25</v>
       </c>
@@ -7384,8 +9652,17 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-24</v>
       </c>
@@ -7404,8 +9681,17 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-23</v>
       </c>
@@ -7424,8 +9710,17 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-22</v>
       </c>
@@ -7444,8 +9739,17 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-21</v>
       </c>
@@ -7464,8 +9768,17 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-20</v>
       </c>
@@ -7484,8 +9797,17 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-19</v>
       </c>
@@ -7504,8 +9826,17 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-18</v>
       </c>
@@ -7524,8 +9855,17 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-17</v>
       </c>
@@ -7544,8 +9884,17 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-16</v>
       </c>
@@ -7564,8 +9913,17 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-15</v>
       </c>
@@ -7584,8 +9942,17 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-14</v>
       </c>
@@ -7604,8 +9971,17 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-13</v>
       </c>
@@ -7624,8 +10000,17 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-12</v>
       </c>
@@ -7644,8 +10029,17 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-11</v>
       </c>
@@ -7664,8 +10058,17 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-10</v>
       </c>
@@ -7684,8 +10087,17 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-9</v>
       </c>
@@ -7704,8 +10116,17 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-8</v>
       </c>
@@ -7724,8 +10145,17 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-7</v>
       </c>
@@ -7744,8 +10174,17 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-6</v>
       </c>
@@ -7764,8 +10203,17 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-5</v>
       </c>
@@ -7784,8 +10232,17 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-4</v>
       </c>
@@ -7804,8 +10261,17 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-3</v>
       </c>
@@ -7824,8 +10290,17 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2</v>
       </c>
@@ -7844,8 +10319,17 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-1</v>
       </c>
@@ -7864,8 +10348,17 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -7884,8 +10377,17 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -7904,8 +10406,17 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -7924,8 +10435,17 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -7944,8 +10464,17 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -7963,6 +10492,15 @@
       </c>
       <c r="F61">
         <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7978,12 +10516,12 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8006,7 +10544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -8029,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -8052,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -8075,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -8098,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -8121,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -8144,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -8167,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -8190,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -8213,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -8236,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -8259,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -8282,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -8305,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -8328,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -8351,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -8374,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -8397,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -8420,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -8443,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -8466,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -8489,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -8512,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -8535,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -8558,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -8581,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -8604,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8627,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8650,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -8673,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -8696,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -8719,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -8742,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -8765,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
@@ -8788,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -8811,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
@@ -8841,15 +11379,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C8F940-33AC-43D3-B90F-35155D11C272}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8868,8 +11406,17 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -8888,8 +11435,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -8908,8 +11464,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -8928,8 +11493,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -8948,8 +11522,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -8968,8 +11551,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -8988,8 +11580,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -9008,8 +11609,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -9028,8 +11638,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -9048,8 +11667,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -9068,8 +11696,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -9088,8 +11725,17 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -9108,8 +11754,17 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -9128,8 +11783,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -9148,8 +11812,17 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -9168,8 +11841,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -9188,8 +11870,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -9208,8 +11899,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -9228,8 +11928,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -9248,8 +11957,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -9268,8 +11986,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -9288,8 +12015,17 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -9308,8 +12044,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -9328,8 +12073,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -9348,8 +12102,17 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -9368,8 +12131,17 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -9388,8 +12160,17 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -9408,8 +12189,17 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9428,8 +12218,17 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9448,8 +12247,17 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -9468,8 +12276,17 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-25</v>
       </c>
@@ -9488,8 +12305,17 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-24</v>
       </c>
@@ -9508,8 +12334,17 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-23</v>
       </c>
@@ -9528,8 +12363,17 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-22</v>
       </c>
@@ -9548,8 +12392,17 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-21</v>
       </c>
@@ -9568,8 +12421,17 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-20</v>
       </c>
@@ -9588,8 +12450,17 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-19</v>
       </c>
@@ -9608,8 +12479,17 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-18</v>
       </c>
@@ -9628,8 +12508,17 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-17</v>
       </c>
@@ -9648,8 +12537,17 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-16</v>
       </c>
@@ -9668,8 +12566,17 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-15</v>
       </c>
@@ -9688,8 +12595,17 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-14</v>
       </c>
@@ -9708,8 +12624,17 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-13</v>
       </c>
@@ -9728,8 +12653,17 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-12</v>
       </c>
@@ -9748,8 +12682,17 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-11</v>
       </c>
@@ -9768,8 +12711,17 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-10</v>
       </c>
@@ -9788,8 +12740,17 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-9</v>
       </c>
@@ -9808,8 +12769,17 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-8</v>
       </c>
@@ -9828,8 +12798,17 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-7</v>
       </c>
@@ -9848,8 +12827,17 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-6</v>
       </c>
@@ -9868,8 +12856,17 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-5</v>
       </c>
@@ -9888,8 +12885,17 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-4</v>
       </c>
@@ -9908,8 +12914,17 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-3</v>
       </c>
@@ -9928,8 +12943,17 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2</v>
       </c>
@@ -9948,8 +12972,17 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-1</v>
       </c>
@@ -9968,8 +13001,17 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -9988,8 +13030,17 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -10008,8 +13059,17 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -10028,8 +13088,17 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -10048,8 +13117,17 @@
       <c r="F60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -10067,6 +13145,15 @@
       </c>
       <c r="F61">
         <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10082,15 +13169,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10113,7 +13200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -10136,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-24</v>
       </c>
@@ -10159,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-23</v>
       </c>
@@ -10182,7 +13269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-22</v>
       </c>
@@ -10205,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-21</v>
       </c>
@@ -10228,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-20</v>
       </c>
@@ -10251,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-19</v>
       </c>
@@ -10274,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-18</v>
       </c>
@@ -10297,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-17</v>
       </c>
@@ -10320,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-16</v>
       </c>
@@ -10343,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-15</v>
       </c>
@@ -10366,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-14</v>
       </c>
@@ -10389,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-13</v>
       </c>
@@ -10412,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
@@ -10435,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-11</v>
       </c>
@@ -10458,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-10</v>
       </c>
@@ -10481,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-9</v>
       </c>
@@ -10504,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-8</v>
       </c>
@@ -10527,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-7</v>
       </c>
@@ -10550,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -10573,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-5</v>
       </c>
@@ -10596,7 +13683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-4</v>
       </c>
@@ -10619,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -10642,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -10665,7 +13752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -10688,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -10711,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -10734,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -10757,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -10780,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -10803,7 +13890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -10826,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -10849,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -10872,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
@@ -10895,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
@@ -10918,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
